--- a/data/trans_dic/IP16A05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A05-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>47,6%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>41,69%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 16,99</t>
+          <t>0,0; 67,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,0; 29,08</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 18,38</t>
+          <t>0,0; 85,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 16,76</t>
+          <t>0; 23,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,09; 22,41</t>
+          <t>0,0; 36,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,62; 24,5</t>
+          <t>13,57; 87,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,16; 25,93</t>
+          <t>0; 23,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,51; 16,59</t>
+          <t>0; 15,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 16,5</t>
+          <t>0,0; 35,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,34; 24,73</t>
+          <t>10,25; 73,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,71; 19,55</t>
+          <t>0,0; 41,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,33; 14,15</t>
+          <t>0; 9,99</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>8,14%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 21,31</t>
+          <t>3,0; 16,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,85; 22,72</t>
+          <t>9,0; 29,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 19,93</t>
+          <t>3,22; 18,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,8</t>
+          <t>3,24; 16,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 22,1</t>
+          <t>6,09; 22,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,48; 31,57</t>
+          <t>6,62; 24,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,79; 26,31</t>
+          <t>9,16; 25,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 15,16</t>
+          <t>3,51; 16,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 17,55</t>
+          <t>5,46; 16,5</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,32; 23,88</t>
+          <t>10,34; 24,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 18,98</t>
+          <t>7,71; 19,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,45</t>
+          <t>4,33; 14,15</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,7%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,17</t>
+          <t>3,95; 21,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>1,67; 15,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 85,19</t>
+          <t>11,33; 35,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>1,95; 13,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,01</t>
+          <t>2,04; 18,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,57; 87,71</t>
+          <t>8,49; 28,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>4,08; 22,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>4,61; 21,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,16</t>
+          <t>4,44; 16,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,25; 73,84</t>
+          <t>5,79; 17,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,85</t>
+          <t>8,94; 24,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>4,59; 15,51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>3,91%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,95; 21,92</t>
+          <t>3,65; 21,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 15,3</t>
+          <t>5,85; 22,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,33; 35,32</t>
+          <t>2,35; 19,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,95; 13,15</t>
+          <t>0,0; 11,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,04; 18,81</t>
+          <t>2,77; 22,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,49; 28,74</t>
+          <t>10,48; 31,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,08; 22,44</t>
+          <t>5,79; 26,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,61; 21,21</t>
+          <t>1,73; 15,16</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,44; 16,86</t>
+          <t>5,31; 17,55</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 17,71</t>
+          <t>10,32; 23,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,94; 24,92</t>
+          <t>5,7; 18,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 15,51</t>
+          <t>1,06; 9,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A05-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -744,12 +744,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,01</t>
+          <t>0,0; 41,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,57; 87,71</t>
+          <t>13,19; 79,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,16</t>
+          <t>0,0; 34,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,25; 73,84</t>
+          <t>12,87; 74,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,85</t>
+          <t>0,0; 57,83</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 26,52</t>
+          <t>2,83; 24,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,75; 25,42</t>
+          <t>4,92; 25,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,6; 31,7</t>
+          <t>3,58; 29,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,38</t>
+          <t>0,0; 15,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,66</t>
+          <t>0,0; 18,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 30,58</t>
+          <t>5,58; 31,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,75</t>
+          <t>0,0; 20,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,68; 26,53</t>
+          <t>2,71; 23,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 16,74</t>
+          <t>3,38; 15,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,52; 23,01</t>
+          <t>7,24; 22,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 20,35</t>
+          <t>3,52; 18,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,56; 14,09</t>
+          <t>1,9; 14,28</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 16,99</t>
+          <t>3,09; 17,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,0; 29,08</t>
+          <t>9,06; 30,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 18,38</t>
+          <t>3,33; 19,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 16,76</t>
+          <t>2,9; 15,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 22,41</t>
+          <t>6,07; 23,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,62; 24,5</t>
+          <t>6,84; 24,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 25,93</t>
+          <t>9,32; 26,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 16,59</t>
+          <t>3,59; 16,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 16,5</t>
+          <t>5,58; 16,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,34; 24,73</t>
+          <t>10,25; 25,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,71; 19,55</t>
+          <t>7,87; 19,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 14,15</t>
+          <t>4,41; 14,04</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 21,92</t>
+          <t>3,84; 21,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 15,3</t>
+          <t>1,65; 14,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 35,32</t>
+          <t>9,5; 34,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 13,15</t>
+          <t>1,87; 14,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 18,81</t>
+          <t>2,04; 17,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,49; 28,74</t>
+          <t>8,08; 29,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 22,44</t>
+          <t>3,71; 22,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,61; 21,21</t>
+          <t>4,48; 22,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 16,86</t>
+          <t>4,47; 16,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 17,71</t>
+          <t>6,41; 17,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,94; 24,92</t>
+          <t>8,87; 24,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 15,51</t>
+          <t>4,52; 15,06</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,65; 21,31</t>
+          <t>3,66; 21,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,85; 22,72</t>
+          <t>6,03; 23,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 19,93</t>
+          <t>2,39; 21,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,8</t>
+          <t>0,0; 11,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 22,1</t>
+          <t>2,77; 22,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,48; 31,57</t>
+          <t>10,32; 31,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 26,31</t>
+          <t>4,67; 24,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 15,16</t>
+          <t>1,71; 15,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,31; 17,55</t>
+          <t>4,5; 17,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,32; 23,88</t>
+          <t>10,06; 23,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 18,98</t>
+          <t>5,55; 18,6</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,45</t>
+          <t>0,95; 9,62</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,49; 15,09</t>
+          <t>6,41; 14,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,82; 18,12</t>
+          <t>8,84; 18,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,73; 18,77</t>
+          <t>8,66; 18,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,77; 9,12</t>
+          <t>3,01; 9,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,51; 13,73</t>
+          <t>5,44; 13,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,88; 23,92</t>
+          <t>13,17; 23,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,52; 16,59</t>
+          <t>7,9; 17,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,41; 13,79</t>
+          <t>5,47; 13,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,83; 12,52</t>
+          <t>7,08; 12,81</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,25; 19,17</t>
+          <t>12,21; 19,42</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,44; 16,06</t>
+          <t>9,43; 16,23</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,93</t>
+          <t>4,84; 9,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A05-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,17</t>
+          <t>0,0; 66,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -744,12 +744,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,03</t>
+          <t>0,0; 41,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,19; 79,26</t>
+          <t>13,27; 87,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 34,38</t>
+          <t>0,0; 33,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,87; 74,51</t>
+          <t>10,5; 72,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 57,83</t>
+          <t>0,0; 45,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,83; 24,18</t>
+          <t>2,82; 24,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 25,76</t>
+          <t>6,54; 28,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,58; 29,25</t>
+          <t>3,54; 31,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,82</t>
+          <t>0,0; 19,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,54</t>
+          <t>0,0; 17,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 31,18</t>
+          <t>5,83; 31,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,3</t>
+          <t>0,0; 17,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,71; 23,86</t>
+          <t>2,62; 25,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 15,97</t>
+          <t>3,84; 16,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,24; 22,47</t>
+          <t>7,69; 23,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 18,71</t>
+          <t>3,54; 18,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 14,28</t>
+          <t>1,42; 14,05</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 17,46</t>
+          <t>3,04; 16,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,06; 30,75</t>
+          <t>9,03; 30,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 19,93</t>
+          <t>3,26; 17,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 15,76</t>
+          <t>3,01; 16,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 23,0</t>
+          <t>6,06; 21,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,84; 24,78</t>
+          <t>7,16; 24,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,32; 26,36</t>
+          <t>9,43; 27,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 16,78</t>
+          <t>3,7; 17,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,58; 16,83</t>
+          <t>5,38; 16,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,25; 25,03</t>
+          <t>10,38; 23,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 19,11</t>
+          <t>7,98; 19,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 14,04</t>
+          <t>4,58; 14,13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 21,28</t>
+          <t>3,88; 20,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 14,71</t>
+          <t>1,68; 14,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,5; 34,59</t>
+          <t>10,86; 34,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 14,46</t>
+          <t>1,98; 14,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 17,93</t>
+          <t>2,03; 17,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,08; 29,27</t>
+          <t>7,6; 27,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,71; 22,38</t>
+          <t>4,1; 22,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 22,43</t>
+          <t>5,11; 23,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 16,0</t>
+          <t>4,5; 16,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,41; 17,95</t>
+          <t>6,05; 17,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,87; 24,73</t>
+          <t>8,75; 23,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,52; 15,06</t>
+          <t>4,37; 14,61</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,66; 21,57</t>
+          <t>3,61; 21,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,03; 23,0</t>
+          <t>5,76; 23,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 21,18</t>
+          <t>2,32; 20,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,91</t>
+          <t>0,0; 9,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 22,84</t>
+          <t>2,75; 22,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,32; 31,54</t>
+          <t>11,2; 31,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,67; 24,98</t>
+          <t>5,69; 25,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 15,44</t>
+          <t>1,77; 15,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,5; 17,47</t>
+          <t>5,32; 16,73</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,06; 23,74</t>
+          <t>9,85; 23,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,55; 18,6</t>
+          <t>5,61; 18,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 9,62</t>
+          <t>1,16; 9,84</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,41; 14,35</t>
+          <t>6,72; 14,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,84; 18,41</t>
+          <t>8,9; 17,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,66; 18,54</t>
+          <t>8,6; 19,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,01; 9,22</t>
+          <t>2,89; 9,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,44; 13,58</t>
+          <t>5,35; 13,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,17; 23,58</t>
+          <t>13,14; 23,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,9; 17,07</t>
+          <t>7,54; 16,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,47; 13,51</t>
+          <t>5,42; 13,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,08; 12,81</t>
+          <t>6,96; 12,64</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,21; 19,42</t>
+          <t>11,98; 18,62</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>9,43; 16,23</t>
+          <t>9,31; 15,96</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,84; 9,84</t>
+          <t>4,91; 9,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16A05-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>21,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,84%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,75</t>
+          <t>1,76; 17,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>10,24; 38,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 85,19</t>
+          <t>0,0; 12,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>2,12; 19,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,7</t>
+          <t>4,44; 24,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,27; 87,54</t>
+          <t>6,42; 27,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>6,26; 32,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0,0; 11,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,9</t>
+          <t>4,43; 17,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,5; 72,99</t>
+          <t>10,89; 28,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,42</t>
+          <t>3,52; 18,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>1,18; 12,04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>15,97%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>7,81%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,82; 24,3</t>
+          <t>6,09; 22,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,54; 28,82</t>
+          <t>6,62; 24,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 31,89</t>
+          <t>9,16; 25,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,49</t>
+          <t>3,07; 16,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,21</t>
+          <t>3,0; 16,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,83; 31,23</t>
+          <t>9,0; 29,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,56</t>
+          <t>3,22; 18,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 25,51</t>
+          <t>3,14; 16,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 16,17</t>
+          <t>5,46; 16,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,69; 23,71</t>
+          <t>10,34; 24,73</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,54; 18,74</t>
+          <t>7,71; 19,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 14,05</t>
+          <t>4,03; 13,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>16,64%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>8,49%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 16,9</t>
+          <t>2,04; 18,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,03; 30,0</t>
+          <t>8,49; 28,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,26; 17,94</t>
+          <t>4,08; 22,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,01; 16,75</t>
+          <t>2,28; 23,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 21,78</t>
+          <t>3,95; 21,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 24,59</t>
+          <t>1,67; 15,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 27,11</t>
+          <t>11,33; 35,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 17,53</t>
+          <t>2,18; 13,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 16,26</t>
+          <t>4,44; 16,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,38; 23,22</t>
+          <t>5,79; 17,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,98; 19,77</t>
+          <t>8,94; 24,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 14,13</t>
+          <t>3,69; 17,14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>9,85%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>3,74%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 20,61</t>
+          <t>2,77; 22,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 14,34</t>
+          <t>10,48; 31,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,86; 34,65</t>
+          <t>5,79; 26,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 14,03</t>
+          <t>1,76; 15,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,03; 17,79</t>
+          <t>3,65; 21,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,6; 27,27</t>
+          <t>5,85; 22,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,1; 22,9</t>
+          <t>2,35; 19,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 23,13</t>
+          <t>0,0; 11,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 16,49</t>
+          <t>5,31; 17,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,05; 17,95</t>
+          <t>10,32; 23,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 23,78</t>
+          <t>5,7; 18,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 14,61</t>
+          <t>0,93; 9,06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>9,6%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>6,89%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 21,4</t>
+          <t>5,51; 13,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,76; 23,85</t>
+          <t>12,88; 23,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,32; 20,27</t>
+          <t>7,52; 16,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,35</t>
+          <t>4,64; 14,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,75; 22,43</t>
+          <t>6,49; 15,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,2; 31,47</t>
+          <t>8,82; 18,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,69; 25,99</t>
+          <t>8,73; 18,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 15,11</t>
+          <t>2,76; 9,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,32; 16,73</t>
+          <t>6,83; 12,52</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,85; 23,07</t>
+          <t>12,25; 19,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,61; 18,75</t>
+          <t>9,44; 16,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 9,84</t>
+          <t>4,64; 10,42</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>10,2%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>12,96%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>13,03%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,9%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>17,86%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>11,69%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>8,74%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>9,6%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>15,32%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>12,34%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>7,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>6,72; 14,99</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>8,9; 17,88</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>8,6; 19,06</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,89; 9,25</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>5,35; 13,7</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>13,14; 23,39</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>7,54; 16,69</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>5,42; 13,73</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>6,96; 12,64</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>11,98; 18,62</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>9,31; 15,96</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>4,91; 9,59</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
